--- a/projets/PACBluetooth/20_06_16/test3.xlsx
+++ b/projets/PACBluetooth/20_06_16/test3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\stage\stage_2020_b\projets\PACBluetooth\20_06_16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73197EF4-CB28-4338-8932-26EBB5BA7956}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82575D2E-707D-4C36-A420-FB15B6361547}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
-  <si>
-    <t xml:space="preserve"> à:àà</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t xml:space="preserve"> 0,00</t>
   </si>
@@ -66,28 +64,34 @@
     <t xml:space="preserve"> 62,13</t>
   </si>
   <si>
-    <t>cxc</t>
-  </si>
-  <si>
-    <t>qsqs</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-  <si>
-    <t>sq</t>
-  </si>
-  <si>
-    <t>xw</t>
-  </si>
-  <si>
-    <t>wx</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>qs</t>
+    <t>"é</t>
+  </si>
+  <si>
+    <t>""é</t>
+  </si>
+  <si>
+    <t>é</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>&amp;é"'</t>
+  </si>
+  <si>
+    <t>ici</t>
+  </si>
+  <si>
+    <t>"'(</t>
+  </si>
+  <si>
+    <t>(-éici</t>
+  </si>
+  <si>
+    <t>("'(</t>
+  </si>
+  <si>
+    <t>"'"""""</t>
   </si>
 </sst>
 </file>
@@ -107,6 +111,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,8 +134,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,10 +154,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
@@ -162,26 +164,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>184150</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>44450</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Button 1" hidden="1">
+            <xdr:cNvPr id="1032" name="Button 8" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
+                  <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{282860E5-3EB3-4753-9446-EBDA6959C31A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -217,70 +219,12 @@
                   <a:latin typeface="Calibri"/>
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
-                <a:t>Button 1</a:t>
+                <a:t>Button 8</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>273050</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>82550</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>406400</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>82550</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="CommandButton1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
       </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -552,192 +496,163 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:F17"/>
+  <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="e">
+        <f>-è</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="CommandButton1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>273050</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>82550</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>406400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>82550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="CommandButton1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="Button 1">
-          <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!exemple">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>12700</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>44450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-    </mc:AlternateContent>
-  </controls>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId4" name="Button 8">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!button8">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>184150</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>139700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>